--- a/DevConfig.xlsx
+++ b/DevConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyDev\Documents\GitHub\CreateFMReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5406DAE4-2907-473A-BFBF-79A39274900D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9445EFB4-C5B8-42FE-87EE-4D59A340640C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -212,6 +212,15 @@
   </si>
   <si>
     <t>C:\Users\MyDev\Documents\UiPath\CreateFMReports\FMInput_Invoices{DATE}.csv</t>
+  </si>
+  <si>
+    <t>FailedInvoicesReportPath</t>
+  </si>
+  <si>
+    <t>FailedPicsReportPath</t>
+  </si>
+  <si>
+    <t>FailedNotesReportPath</t>
   </si>
 </sst>
 </file>
@@ -590,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z981"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -716,9 +725,30 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -2830,7 +2860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
